--- a/labels_test_tsuji.xlsx
+++ b/labels_test_tsuji.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oss/labels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FC4F08-8DDF-F941-8394-5F4F731E4F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727A10B3-C89C-1B43-8090-4D6B81087DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15460" xr2:uid="{69F567FC-C8E7-2C4A-A8F4-285A87206B9C}"/>
+    <workbookView xWindow="28820" yWindow="-12900" windowWidth="29620" windowHeight="28300" xr2:uid="{69F567FC-C8E7-2C4A-A8F4-285A87206B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="292">
   <si>
     <t>vscode</t>
   </si>
@@ -639,6 +639,463 @@
   </si>
   <si>
     <t>https://github.com/microsoft/vscode/issues/130383</t>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Remarks</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]
+[Class]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Design</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]npm スクリプト ビュー/拡張機能ですべてのスクリプトのデバッグを許可する
+[Class]機能の追加</t>
+    <rPh sb="55" eb="57">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]端末プロセスで PTY* 環境変数を削除する
+[Class]不要な変数の削除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ノートブック セルのプレースホルダー テキストはMarkdown セル用に更新する必要がある
+[Class]機能の改善，UIの変更</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]タスク サービスが並列タスク実行をサポートしているかどうかを判断するための API を追加
+[Class]機能の追加</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]VSCodeがクリーン インストール後の最初の起動時にすぐに閉じる
+[Class]バグの修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]QuickInput: anyの危険な使用
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]terminateProcess() は cp.spawnSync() または cp.execFileSync() を使用しない
+[Class]関数の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]環境: BACKUPS がおかしい
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ぼやけて太く表示されるアイコン
+[Class]インターフェースの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]registerSingleton は同じ識別子で登録するためにスローする必要がある
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]検索: IWorkspaceFolder の使用は怪しい
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]Notebookレンダラー用のYoコードジェネレーター
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]新しく受け入れたメソッドにいくつかのテストを追加
+[Class]テストの追加</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Tests</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]組み込み拡張機能のアイコンを追加する
+[Class]インターフェースの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]cellRenderer.ts で文字列を連結する代わりにDOM API を使用して HTML 要素を作成
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]「Occurred」の綴りが複数箇所間違っている
+[Class]スペルミスの修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]カテゴリとタイトルの間で組み込みコマンドのエイリアスを分割
+[Class]機能の改善</t>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]テキストメイトスコープの平坦化が間違った色付けにつながる
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]サポートテレメトリレベルの向上
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ビューやパネルに加えた変更を元に戻す簡単な方法がない
+[Class]インターフェースの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]createTerminalは提供されたプロファイル ターミナル エディターの作成をサポートする必要がある
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]workbench/contrib/welcome で node/electron-browser の必要性を再確認
+[Class]ディレクトリの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]迷子のconsole.log
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]編集履歴をクイック オープンから履歴サービスに移動
+[Class]機能の移行</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]IKeybindingService#executeCommand で「args」を定義する
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]TerminalProfileQuickPick クラスを作成する
+[Class]クラスの作成</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]エディタ: IEditorPane が IPanel を拡張する
+[Class]機能の拡張</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ベース/プラットフォームで Array.includes() を使用できませんか?
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Requirement</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]存在しない端末の pty メッセージが pty ホストに到達したときのロギングを改善
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]デバッグ: インライン ブレークポイントを切り替えると行が点滅することがある
+[Class]インターフェースの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]アクティブなタブにはアクティブなビューレット，パネルと一致するインジケーターが必要
+[Class]インターフェースの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content].desktop ファイルの間違ったプレースホルダー
+[Class]ファイルの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]相対パターンのベースを文字列ではなく URI にする
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]組み込みの拡張機能でソース マップのデバッグが機能しない
+[Class]バグの修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Unknown</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]WorkspaceStat.TAGS がトラブルを要求する
+[Class]ワークスペース統計サービスの使用</t>
+    <rPh sb="60" eb="62">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]拡張ホストコードによるlaunch.json の作成をサポート
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]パスを表示し空白を使用するすべての場所をパスします
+[Class]インターフェースの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ファイル vscode.proposed.d.ts -&gt; インターフェイス StatusBarItemOptions が名前空間ウィンドウで宣言される
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ファイル検索はクイック オープンからの制限を考慮しない
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Performance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]一括編集: エラーの場合でも参照を破棄
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ノートブック:soft:trueでリバイスリバートする
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]合併EditorPane・EditorInput登録の検討
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]特定のフレームへの devtools のスコープを許可する
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]スキャンする必要があるマークダウンを再検討する
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]serviceMachineIdResource をノード層に移動
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]electron-browserをname spaceに移動します
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]タスクのデフォルトの端末シェル/引数のために ext ホストに移動しないでください
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]メモリ内にぶら下がっている削除済みファイルのぶら下がりテキスト ファイル モデル
+[Class]インターフェースの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]service-worker.js の ts-check がありません
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ユニバーサル ビルドでビルド時間を合理化
+[Class]ビルドの高速化</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Build</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]安全になったら hoist_funs: true 構成を削除する
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]workbench.action.searchEditor.deleteResultBlockがめちゃくちゃ
+[Class]インターフェースの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]設定の設定は設定から提供する必要があります
+[Class]インターフェースの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]TerminalInstanceDragAndDropController を別のファイルに抽出
+[Class]ファイルの移行</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]IWorkingCopy と TextFileEditorModel&amp;IResolvedTextFileEditorModel の型が一致しない
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]サンドボックス: プリロード スクリプトから構成環境を割り当てる必要性を再確認
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]潜在的なリスナーの LEAK が検出され400 人のリスナーがいる
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ScrollableElementのscrollYToXを削除し、既存のオプションflipAxesを使用する
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]安全でない可能性のあるエディター リソースの使用状況を確認
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]setInput キャンセルのチェック
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]位置 8 の WebviewEditorInput の最初のサービス依存関係が 8 つの静的引数と競合している
+[Class]機能の修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]拡張機能は組み込みの拡張機能から firstLine 提供言語を簡単にオーバーライドできない
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]TerminalLabelComputer を別のファイルに抽出
+[Class]ファイルの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]暗号化サービスはサンドボックスに対応していない
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]rewriteWorkspaceFileForNewLocation テストを削除または修正
+[Class]テストの修正，削除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]resourceIdentityService の名前を変更することを検討
+[Class]名前の変更</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]大きなファイルで Emmet 略語展開を高速化するオプションを調べる
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content][サイドローディング] メインスレッドで発生する必要がある
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]TerminalProperty を使用するために他のターミナル プロセス プロパティを移行
+[Class]機能の移行</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]メッセージ ポートはcontextIsolation を使用するサンドボックス環境では機能しない
+[Class]機能の修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]カーソル位置で編集が終了すると、textDocument/formatting と /onTypeFormatting の動作がおかしくなる
+[Class]バグの修正，UIの修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]対話型ウィンドウでコマンドvscode.executeCompletionItemProviderが機能しない
+[Class]機能の修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]VSCode でのエディター入力のライフサイクルを再検討
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ユーザー データ: バックアップ、ワークスペース、ユーザー状態を %APPDATA%/User に移行
+[Class]データの移行</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]Web とデスクトップの間でパスサービスの実装を調整
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]applicationinsights@1.0.8 への更新
+[Class]ツールの更新</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]vscode の Emmet の動作が遅すぎる
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]登録された編集者がマッチングを提供することを主張する
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]このテストは実行を 500 ミリ秒遅らせる
+[Class]テストの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]コンパクト メニュー: 使用後に DOM ノードを削除する必要がある
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -699,7 +1156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -708,6 +1165,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,904 +1486,1325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EF92F5-6478-8C48-8F47-47724FBAC784}">
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" customWidth="1"/>
+    <col min="6" max="6" width="60" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" ht="21">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="C1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="63">
       <c r="A2" s="2">
         <v>355</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="42">
       <c r="A3" s="2">
         <v>477</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="63">
       <c r="A4" s="2">
         <v>451</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="63">
       <c r="A5" s="2">
         <v>479</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="42">
       <c r="A6" s="2">
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="42">
       <c r="A7" s="2">
         <v>779</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="63">
       <c r="A8" s="2">
         <v>651</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="42">
       <c r="A9" s="2">
         <v>839</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="42">
       <c r="A10" s="2">
         <v>296</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="63">
       <c r="A11" s="2">
         <v>914</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="42">
       <c r="A12" s="2">
         <v>882</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="42">
       <c r="A13" s="2">
         <v>180</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="42">
       <c r="A14" s="2">
         <v>964</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="42">
       <c r="A15" s="2">
         <v>276</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="63">
       <c r="A16" s="2">
         <v>117</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="42">
       <c r="A17" s="2">
         <v>460</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="42">
       <c r="A18" s="2">
         <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="42">
       <c r="A19" s="2">
         <v>256</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="42">
       <c r="A20" s="2">
         <v>441</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="42">
       <c r="A21" s="2">
         <v>287</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="63">
       <c r="A22" s="2">
         <v>717</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="63">
       <c r="A23" s="2">
         <v>618</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="42">
       <c r="A24" s="2">
         <v>912</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="42">
       <c r="A25" s="2">
         <v>492</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="42">
       <c r="A26" s="2">
         <v>345</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="42">
       <c r="A27" s="2">
         <v>351</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="42">
       <c r="A28" s="2">
         <v>780</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="42">
       <c r="A29" s="2">
         <v>833</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="63">
       <c r="A30" s="2">
         <v>590</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="63">
       <c r="A31" s="2">
         <v>927</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="63">
       <c r="A32" s="2">
         <v>273</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="42">
       <c r="A33" s="2">
         <v>83</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="42">
       <c r="A34" s="2">
         <v>826</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="42">
       <c r="A35" s="2">
         <v>116</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="42">
       <c r="A36" s="2">
         <v>676</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="42">
       <c r="A37" s="2">
         <v>387</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="42">
       <c r="A38" s="2">
         <v>174</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="63">
       <c r="A39" s="2">
         <v>141</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="42">
       <c r="A40" s="2">
         <v>787</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="42">
       <c r="A41" s="2">
         <v>801</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="42">
       <c r="A42" s="2">
         <v>897</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="42">
       <c r="A43" s="2">
         <v>265</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="42">
       <c r="A44" s="2">
         <v>208</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="42">
       <c r="A45" s="2">
         <v>950</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="42">
       <c r="A46" s="2">
         <v>791</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42">
       <c r="A47" s="2">
         <v>724</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="63">
       <c r="A48" s="2">
         <v>656</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="63">
       <c r="A49" s="2">
         <v>197</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42">
       <c r="A50" s="2">
         <v>903</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="42">
       <c r="A51" s="2">
         <v>198</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="42">
       <c r="A52" s="2">
         <v>712</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="42">
       <c r="A53" s="2">
         <v>425</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="42">
       <c r="A54" s="2">
         <v>766</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="42">
       <c r="A55" s="2">
         <v>373</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="63">
       <c r="A56" s="2">
         <v>87</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="63">
       <c r="A57" s="2">
         <v>862</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="42">
       <c r="A58" s="2">
         <v>899</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="63">
       <c r="A59" s="2">
         <v>405</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="42">
       <c r="A60" s="2">
         <v>851</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="42">
       <c r="A61" s="2">
         <v>823</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="63">
       <c r="A62" s="2">
         <v>641</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="63">
       <c r="A63" s="2">
         <v>664</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="42">
       <c r="A64" s="2">
         <v>374</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="42">
       <c r="A65" s="2">
         <v>859</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="42">
       <c r="A66" s="2">
         <v>887</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="42">
       <c r="A67" s="2">
         <v>866</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="63">
       <c r="A68" s="2">
         <v>429</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="42">
       <c r="A69" s="2">
         <v>135</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="63">
       <c r="A70" s="2">
         <v>318</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="63">
       <c r="A71" s="2">
         <v>900</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="63">
       <c r="A72" s="2">
         <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="63">
       <c r="A73" s="2">
         <v>225</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="42">
       <c r="A74" s="2">
         <v>815</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="63">
       <c r="A75" s="2">
         <v>680</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="1"/>
+      <c r="C75" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="42">
       <c r="A76" s="2">
         <v>956</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="1"/>
+      <c r="C76" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="42">
       <c r="A77" s="2">
         <v>579</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C77" s="1"/>
+      <c r="C77" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="42">
       <c r="A78" s="2">
         <v>85</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="1"/>
+      <c r="C78" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="42">
       <c r="A79" s="2">
         <v>995</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="1"/>
+      <c r="C79" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="42">
       <c r="A80" s="2">
         <v>450</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="42">
       <c r="A81" s="2">
         <v>753</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="1"/>
+      <c r="C81" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="42">
       <c r="A82" s="2">
         <v>689</v>
       </c>
@@ -1930,8 +2814,11 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="42">
       <c r="A83" s="2">
         <v>71</v>
       </c>
@@ -1941,8 +2828,11 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="42">
       <c r="A84" s="2">
         <v>219</v>
       </c>
@@ -1952,8 +2842,11 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="42">
       <c r="A85" s="2">
         <v>600</v>
       </c>
@@ -1963,8 +2856,11 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="42">
       <c r="A86" s="2">
         <v>562</v>
       </c>
@@ -1974,8 +2870,11 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="42">
       <c r="A87" s="2">
         <v>668</v>
       </c>
@@ -1985,8 +2884,11 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="42">
       <c r="A88" s="2">
         <v>136</v>
       </c>
@@ -1996,8 +2898,11 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="42">
       <c r="A89" s="2">
         <v>505</v>
       </c>
@@ -2007,8 +2912,11 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="42">
       <c r="A90" s="2">
         <v>61</v>
       </c>
@@ -2018,8 +2926,11 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="42">
       <c r="A91" s="2">
         <v>937</v>
       </c>
@@ -2029,8 +2940,11 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="42">
       <c r="A92" s="2">
         <v>361</v>
       </c>
@@ -2040,8 +2954,11 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="42">
       <c r="A93" s="2">
         <v>890</v>
       </c>
@@ -2051,8 +2968,11 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="42">
       <c r="A94" s="2">
         <v>818</v>
       </c>
@@ -2062,8 +2982,11 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="42">
       <c r="A95" s="2">
         <v>762</v>
       </c>
@@ -2073,8 +2996,11 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="42">
       <c r="A96" s="2">
         <v>438</v>
       </c>
@@ -2084,8 +3010,11 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="42">
       <c r="A97" s="2">
         <v>919</v>
       </c>
@@ -2095,8 +3024,11 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="42">
       <c r="A98" s="2">
         <v>529</v>
       </c>
@@ -2106,8 +3038,11 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="42">
       <c r="A99" s="2">
         <v>574</v>
       </c>
@@ -2117,8 +3052,11 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="42">
       <c r="A100" s="2">
         <v>377</v>
       </c>
@@ -2128,8 +3066,11 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="42">
       <c r="A101" s="2">
         <v>561</v>
       </c>
@@ -2139,806 +3080,1112 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="42">
       <c r="A102" s="2">
         <v>551</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="42">
       <c r="A103" s="2">
         <v>470</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="42">
       <c r="A104" s="2">
         <v>177</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="42">
       <c r="A105" s="2">
         <v>604</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="42">
       <c r="A106" s="2">
         <v>538</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="42">
       <c r="A107" s="2">
         <v>487</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="42">
       <c r="A108" s="2">
         <v>585</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="42">
       <c r="A109" s="2">
         <v>844</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="42">
       <c r="A110" s="2">
         <v>37</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="42">
       <c r="A111" s="2">
         <v>853</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="42">
       <c r="A112" s="2">
         <v>699</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="F112" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="42">
       <c r="A113" s="2">
         <v>691</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="F113" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="42">
       <c r="A114" s="2">
         <v>145</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="F114" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="42">
       <c r="A115" s="2">
         <v>233</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="F115" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="42">
       <c r="A116" s="2">
         <v>807</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="F116" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="42">
       <c r="A117" s="2">
         <v>616</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="F117" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="42">
       <c r="A118" s="2">
         <v>57</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="F118" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="42">
       <c r="A119" s="2">
         <v>179</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="F119" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="42">
       <c r="A120" s="2">
         <v>304</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="F120" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="42">
       <c r="A121" s="2">
         <v>475</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="F121" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="42">
       <c r="A122" s="2">
         <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="F122" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="42">
       <c r="A123" s="2">
         <v>655</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="F123" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="42">
       <c r="A124" s="2">
         <v>260</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="F124" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="42">
       <c r="A125" s="2">
         <v>427</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="F125" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="42">
       <c r="A126" s="2">
         <v>15</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="F126" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="42">
       <c r="A127" s="2">
         <v>184</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="F127" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="42">
       <c r="A128" s="2">
         <v>951</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="F128" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="42">
       <c r="A129" s="2">
         <v>512</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="F129" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="42">
       <c r="A130" s="2">
         <v>737</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="F130" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="42">
       <c r="A131" s="2">
         <v>524</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="F131" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="42">
       <c r="A132" s="2">
         <v>242</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="F132" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="42">
       <c r="A133" s="2">
         <v>70</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="F133" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="42">
       <c r="A134" s="2">
         <v>252</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="F134" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="42">
       <c r="A135" s="2">
         <v>41</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="F135" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="42">
       <c r="A136" s="2">
         <v>687</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="F136" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="42">
       <c r="A137" s="2">
         <v>517</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="F137" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="42">
       <c r="A138" s="2">
         <v>403</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="F138" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="42">
       <c r="A139" s="2">
         <v>113</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="F139" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="42">
       <c r="A140" s="2">
         <v>727</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
+      <c r="F140" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="42">
       <c r="A141" s="2">
         <v>768</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
+      <c r="F141" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="42">
       <c r="A142" s="2">
         <v>925</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
+      <c r="F142" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="42">
       <c r="A143" s="2">
         <v>209</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
+      <c r="F143" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="42">
       <c r="A144" s="2">
         <v>658</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
+      <c r="F144" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="42">
       <c r="A145" s="2">
         <v>93</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
+      <c r="F145" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="42">
       <c r="A146" s="2">
         <v>819</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
+      <c r="F146" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="42">
       <c r="A147" s="2">
         <v>820</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
+      <c r="F147" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="42">
       <c r="A148" s="2">
         <v>928</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
+      <c r="F148" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="42">
       <c r="A149" s="2">
         <v>1009</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
+      <c r="F149" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="42">
       <c r="A150" s="2">
         <v>286</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
+      <c r="F150" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="42">
       <c r="A151" s="2">
         <v>350</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
+      <c r="F151" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="42">
       <c r="A152" s="2">
         <v>522</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
+      <c r="F152" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="42">
       <c r="A153" s="2">
         <v>976</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
+      <c r="F153" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="42">
       <c r="A154" s="2">
         <v>868</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
+      <c r="F154" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="42">
       <c r="A155" s="2">
         <v>251</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
+      <c r="F155" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="42">
       <c r="A156" s="2">
         <v>40</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
+      <c r="F156" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="42">
       <c r="A157" s="2">
         <v>591</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
+      <c r="F157" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="42">
       <c r="A158" s="2">
         <v>568</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
+      <c r="F158" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="42">
       <c r="A159" s="2">
         <v>816</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
+      <c r="F159" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="42">
       <c r="A160" s="2">
         <v>988</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
+      <c r="F160" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="42">
       <c r="A161" s="2">
         <v>279</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
+      <c r="F161" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="42">
       <c r="A162" s="2">
         <v>782</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:2">
+      <c r="F162" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="42">
       <c r="A163" s="2">
         <v>713</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
+      <c r="F163" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="42">
       <c r="A164" s="2">
         <v>94</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
+      <c r="F164" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="42">
       <c r="A165" s="2">
         <v>765</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:2">
+      <c r="F165" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="42">
       <c r="A166" s="2">
         <v>615</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
+      <c r="F166" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="42">
       <c r="A167" s="2">
         <v>700</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
+      <c r="F167" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="42">
       <c r="A168" s="2">
         <v>173</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:2">
+      <c r="F168" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="42">
       <c r="A169" s="2">
         <v>27</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:2">
+      <c r="F169" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="42">
       <c r="A170" s="2">
         <v>979</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
+      <c r="F170" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="42">
       <c r="A171" s="2">
         <v>84</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
+      <c r="F171" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="42">
       <c r="A172" s="2">
         <v>255</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
+      <c r="F172" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="42">
       <c r="A173" s="2">
         <v>368</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:2">
+      <c r="F173" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="42">
       <c r="A174" s="2">
         <v>449</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
+      <c r="F174" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="42">
       <c r="A175" s="2">
         <v>398</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:2">
+      <c r="F175" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="42">
       <c r="A176" s="2">
         <v>803</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:2">
+      <c r="F176" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="42">
       <c r="A177" s="2">
         <v>623</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:2">
+      <c r="F177" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="42">
       <c r="A178" s="2">
         <v>541</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:2">
+      <c r="F178" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="42">
       <c r="A179" s="2">
         <v>871</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:2">
+      <c r="F179" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="42">
       <c r="A180" s="2">
         <v>500</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:2">
+      <c r="F180" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="42">
       <c r="A181" s="2">
         <v>798</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:2">
+      <c r="F181" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="42">
       <c r="A182" s="2">
         <v>957</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:2">
+      <c r="F182" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="42">
       <c r="A183" s="2">
         <v>692</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:2">
+      <c r="F183" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="42">
       <c r="A184" s="2">
         <v>30</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:2">
+      <c r="F184" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="42">
       <c r="A185" s="2">
         <v>669</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:2">
+      <c r="F185" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="42">
       <c r="A186" s="2">
         <v>229</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:2">
+      <c r="F186" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="42">
       <c r="A187" s="2">
         <v>915</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:2">
+      <c r="F187" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="42">
       <c r="A188" s="2">
         <v>169</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:2">
+      <c r="F188" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="42">
       <c r="A189" s="2">
         <v>603</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:2">
+      <c r="F189" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="42">
       <c r="A190" s="2">
         <v>555</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:2">
+      <c r="F190" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="42">
       <c r="A191" s="2">
         <v>143</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:2">
+      <c r="F191" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="42">
       <c r="A192" s="2">
         <v>99</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:2">
+      <c r="F192" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="42">
       <c r="A193" s="2">
         <v>466</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:2">
+      <c r="F193" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="42">
       <c r="A194" s="2">
         <v>72</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:2">
+      <c r="F194" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="42">
       <c r="A195" s="2">
         <v>1006</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:2">
+      <c r="F195" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="42">
       <c r="A196" s="2">
         <v>416</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:2">
+      <c r="F196" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="42">
       <c r="A197" s="2">
         <v>592</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:2">
+      <c r="F197" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="42">
       <c r="A198" s="2">
         <v>739</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:2">
+      <c r="F198" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="42">
       <c r="A199" s="2">
         <v>343</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:2">
+      <c r="F199" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="42">
       <c r="A200" s="2">
         <v>322</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:2">
+      <c r="F200" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="42">
       <c r="A201" s="2">
         <v>984</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="F201" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="F202" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/labels_test_tsuji.xlsx
+++ b/labels_test_tsuji.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727A10B3-C89C-1B43-8090-4D6B81087DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E3BE98-2D17-E442-B93F-4BF415D70C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="-12900" windowWidth="29620" windowHeight="28300" xr2:uid="{69F567FC-C8E7-2C4A-A8F4-285A87206B9C}"/>
+    <workbookView xWindow="20000" yWindow="-28300" windowWidth="29620" windowHeight="28300" xr2:uid="{69F567FC-C8E7-2C4A-A8F4-285A87206B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="322">
   <si>
     <t>vscode</t>
   </si>
@@ -1095,6 +1095,171 @@
   <si>
     <t>[Content]コンパクト メニュー: 使用後に DOM ノードを削除する必要がある
 [Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]キーボード レイアウト ローダー: ISO キーボードで一部のテストが失敗する
+[Class]テストの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]「現在の選択内容をすべて選択」では、1000 行を超える内容は選択できない
+[Class]仕様の変更，機能の改善</t>
+    <rPh sb="54" eb="56">
+      <t xml:space="preserve">シヨウノ </t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]TextFileEditorModelManagerは所有していないモデルを破棄する
+[Class]バグの修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]zip.ts をベースに移動
+[Class]ファイルの移行</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]TS は診断を受け取ると多くのドキュメントを開く
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ステータス ズーム ボタンは IStatusbarEntry にする必要がある
+[Class]インターフェースの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]Workbenchサービスはすべて/common/レイヤーにある必要がある
+[Class]コードの移行</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]IURIDisplayService の名前を変更することを検討
+[Class]名前の変更</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ルート フォルダーの変更時に拡張機能ホストの再起動を停止する
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]editorOverrideService の使用に関するフィードバック
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]非推奨の __ 言語構成設定を排除
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]resolveRemoteUri と resolveRemotePath の再検討
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]openWith.ts はエディターサービスに移動する必要がある
+[Class]ファイルの移行</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]適切な e-tag 処理をサポート
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]テーマが変更された場合にのみ端末テーマの CSS を更新
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]gettingStartedServiceをworkbench/contrib に移動することを検討
+[Class]コードの移行</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]vs/platform/inactiveExtensionUrlHandler は vs/workbench に依存できない
+[Class]コードの改善</t>
+    <rPh sb="83" eb="85">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]端末のプライマリ外部ホストチェックにWebワーカー外部ホスト チェックを含める
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]コマンド名と一致するように、rpm および deb パッケージの名前を「コード」に変更することを検討
+[Class]名前の変更</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]デフォルトの newUntitledFile キーバインドが無効です
+[Class]機能の修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]コピー &amp; ペースト ポリシー
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]入力ボックス: ワークベンチからフォントを継承し、設定しない
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]menubar.contribution.ts からメニューバー アクション登録を移行
+[Class]コードの移行</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]vs/base/common/performance がブラウザ環境で実行できない
+[Class]機能の修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]レンダラーを変更するためのより良い/短い名前
+[Class]名前の変更</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ワーカー コードで vs/nls が依存していないことを確認
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]CLI のダイアログ サービスを削除
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ハードコーディングされたファイルの仮定
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]Workbench のタイプミス › エディター: タイトル スクロールバーのサイズが大きいエントリ
+[Class]タイプミスの修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]安全でないファイル イベントの処理
+[Class]機能の改善</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1488,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EF92F5-6478-8C48-8F47-47724FBAC784}">
   <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2804,32 +2969,38 @@
         <v>291</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="42">
+    <row r="82" spans="1:6" ht="63">
       <c r="A82" s="2">
         <v>689</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="42">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="63">
       <c r="A83" s="2">
         <v>71</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="C83" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="E83" s="1"/>
       <c r="F83" s="4" t="s">
-        <v>204</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="42">
@@ -2839,11 +3010,13 @@
       <c r="B84" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="1"/>
+      <c r="C84" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="4" t="s">
-        <v>204</v>
+        <v>294</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="42">
@@ -2853,11 +3026,13 @@
       <c r="B85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="4" t="s">
-        <v>204</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="42">
@@ -2867,11 +3042,13 @@
       <c r="B86" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="4" t="s">
-        <v>204</v>
+        <v>296</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="42">
@@ -2881,11 +3058,13 @@
       <c r="B87" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="4" t="s">
-        <v>204</v>
+        <v>297</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="42">
@@ -2895,11 +3074,13 @@
       <c r="B88" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C88" s="1"/>
+      <c r="C88" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="4" t="s">
-        <v>204</v>
+        <v>298</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="42">
@@ -2909,11 +3090,13 @@
       <c r="B89" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="1"/>
+      <c r="C89" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="4" t="s">
-        <v>204</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="42">
@@ -2923,11 +3106,13 @@
       <c r="B90" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C90" s="1"/>
+      <c r="C90" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="4" t="s">
-        <v>204</v>
+        <v>300</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="42">
@@ -2937,11 +3122,13 @@
       <c r="B91" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C91" s="1"/>
+      <c r="C91" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="4" t="s">
-        <v>204</v>
+        <v>301</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="42">
@@ -2951,11 +3138,13 @@
       <c r="B92" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C92" s="1"/>
+      <c r="C92" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="4" t="s">
-        <v>204</v>
+        <v>302</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="42">
@@ -2965,11 +3154,13 @@
       <c r="B93" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="4" t="s">
-        <v>204</v>
+        <v>303</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="42">
@@ -2979,11 +3170,13 @@
       <c r="B94" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C94" s="1"/>
+      <c r="C94" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="4" t="s">
-        <v>204</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="42">
@@ -2993,11 +3186,13 @@
       <c r="B95" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C95" s="1"/>
+      <c r="C95" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="4" t="s">
-        <v>204</v>
+        <v>305</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="42">
@@ -3007,11 +3202,13 @@
       <c r="B96" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C96" s="1"/>
+      <c r="C96" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="4" t="s">
-        <v>204</v>
+        <v>306</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="42">
@@ -3021,53 +3218,61 @@
       <c r="B97" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="42">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="63">
       <c r="A98" s="2">
         <v>529</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C98" s="1"/>
+      <c r="C98" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="42">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="63">
       <c r="A99" s="2">
         <v>574</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C99" s="1"/>
+      <c r="C99" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="42">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="63">
       <c r="A100" s="2">
         <v>377</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C100" s="1"/>
+      <c r="C100" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="4" t="s">
-        <v>204</v>
+        <v>310</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="42">
@@ -3077,11 +3282,13 @@
       <c r="B101" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="4" t="s">
-        <v>204</v>
+        <v>311</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="42">
@@ -3091,8 +3298,11 @@
       <c r="B102" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="C102" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F102" s="4" t="s">
-        <v>204</v>
+        <v>312</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="42">
@@ -3102,8 +3312,11 @@
       <c r="B103" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="C103" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F103" s="4" t="s">
-        <v>204</v>
+        <v>313</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="42">
@@ -3113,8 +3326,11 @@
       <c r="B104" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="C104" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F104" s="4" t="s">
-        <v>204</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="42">
@@ -3124,8 +3340,11 @@
       <c r="B105" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="C105" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F105" s="4" t="s">
-        <v>204</v>
+        <v>315</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="42">
@@ -3135,8 +3354,11 @@
       <c r="B106" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="C106" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F106" s="4" t="s">
-        <v>204</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="42">
@@ -3146,8 +3368,11 @@
       <c r="B107" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="C107" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F107" s="4" t="s">
-        <v>204</v>
+        <v>317</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="42">
@@ -3157,8 +3382,11 @@
       <c r="B108" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="C108" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F108" s="4" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="42">
@@ -3168,19 +3396,25 @@
       <c r="B109" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="C109" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F109" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="42">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="63">
       <c r="A110" s="2">
         <v>37</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="C110" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F110" s="4" t="s">
-        <v>204</v>
+        <v>320</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="42">
@@ -3190,8 +3424,11 @@
       <c r="B111" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="C111" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F111" s="4" t="s">
-        <v>204</v>
+        <v>321</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="42">

--- a/labels_test_tsuji.xlsx
+++ b/labels_test_tsuji.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E3BE98-2D17-E442-B93F-4BF415D70C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4661C09-6A91-ED46-94BE-5794CE1A7EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20000" yWindow="-28300" windowWidth="29620" windowHeight="28300" xr2:uid="{69F567FC-C8E7-2C4A-A8F4-285A87206B9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="332">
   <si>
     <t>vscode</t>
   </si>
@@ -1260,6 +1260,59 @@
   <si>
     <t>[Content]安全でないファイル イベントの処理
 [Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]不正なグローバル変数アクセス
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]エディターとパネルの間でコンテキストメニューコードを共有する
+[Class]コードの改善</t>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]Emmet select item コマンドはパーサーを必要としません
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]grunt 拡張機能に resolveTask を実装する
+[Class]機能の追加</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]メニューへの最初のエントリとして「非表示」を提供する
+[Class]インターフェースの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]workbench/contrib/tasks で node/electron-browser の必要性を再確認する
+[Class]ファイルの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ConPTY を使用するとシェル タスクが 500 ミリ秒遅れる
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]FindWidget のリファクタリング: 履歴/コマンドを使用した共有可能な検索コンポーネント
+[Class]リファクタリング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]拡張機能の管理と表示における負債
+[Class]コード，機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]組み込み拡張機能のソースマップを公開する
+[Class]機能の追加</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1653,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EF92F5-6478-8C48-8F47-47724FBAC784}">
   <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3438,8 +3491,11 @@
       <c r="B112" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="C112" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F112" s="4" t="s">
-        <v>204</v>
+        <v>322</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="42">
@@ -3449,8 +3505,11 @@
       <c r="B113" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="C113" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F113" s="4" t="s">
-        <v>204</v>
+        <v>323</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="42">
@@ -3460,8 +3519,11 @@
       <c r="B114" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="C114" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F114" s="4" t="s">
-        <v>204</v>
+        <v>324</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="42">
@@ -3471,8 +3533,11 @@
       <c r="B115" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="C115" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F115" s="4" t="s">
-        <v>204</v>
+        <v>325</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="42">
@@ -3482,19 +3547,25 @@
       <c r="B116" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="C116" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="F116" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="42">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="63">
       <c r="A117" s="2">
         <v>616</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="C117" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F117" s="4" t="s">
-        <v>204</v>
+        <v>327</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="42">
@@ -3504,19 +3575,25 @@
       <c r="B118" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="C118" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="F118" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="42">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="63">
       <c r="A119" s="2">
         <v>179</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="C119" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F119" s="4" t="s">
-        <v>204</v>
+        <v>329</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="42">
@@ -3526,8 +3603,11 @@
       <c r="B120" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="C120" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F120" s="4" t="s">
-        <v>204</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="42">
@@ -3537,8 +3617,11 @@
       <c r="B121" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="C121" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F121" s="4" t="s">
-        <v>204</v>
+        <v>331</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="42">

--- a/labels_test_tsuji.xlsx
+++ b/labels_test_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4661C09-6A91-ED46-94BE-5794CE1A7EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704F166C-008C-494F-A62C-29AC9878B06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20000" yWindow="-28300" windowWidth="29620" windowHeight="28300" xr2:uid="{69F567FC-C8E7-2C4A-A8F4-285A87206B9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="384">
   <si>
     <t>vscode</t>
   </si>
@@ -1313,6 +1313,288 @@
   <si>
     <t>[Content]組み込み拡張機能のソースマップを公開する
 [Class]機能の追加</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]VSCode の既定の言語拡張機能はカスタム言語拡張機能をオーバーライドする
+[Class]バグの修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]open() は読み取り用か書き込み用かを示す必要がある
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]PAT 経由で github 認証を削除する
+[Class]不要な機能の削除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]Uri#fsPathはパスがなく権限のみがある場合は空にする必要がある
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]vscode.workspace.findFiles() が特定の RIPGREP_CONFIG_PATH で結果を返さない場合がある
+[Class]バグの修正</t>
+    <rPh sb="87" eb="89">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]VS Code ウィンドウ間でのファイルの貼り付けが非常に遅い
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]検索: キーバインド付きの tooltp がある
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]NotebookCellTextModel のリーク
+[Class]機能の修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]node.js 12 から再帰的な fs.mkdir を採用
+[Class]ツールの使用</t>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]デバッグ: スキームがありません
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]グロブ正規表現は非効率的であり間違った結果を生成する可能性がある
+[Class]コードの改善</t>
+    <rPh sb="53" eb="55">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ProgressCallback はデバウンスではなく調整する必要がある
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]インテリセンスが非表示になったときにメモリを解放する
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ファイルサイズが90Mのtxtを開くことができません
+[Class]バグの修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]onWillSaveState イベントを使用して状態を保存する
+[Class]イベントの状態を保存</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]Chokidars のマルチルート処理を再検討する
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]main から process.env への変更がレンダラーに到達しない
+[Class]バグの修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]vs コード デバッグ アダプター、スコープと変数の要求
+[Class]バグの修正</t>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]更新の貢献から電子部品を解きほぐす
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]単体テストでの console.warn
+[Class]テストの修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]IEditor記憶に残らない
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]一度に複数のファイルを移動するときは、個別のイベントではなく単一の FileWillRenameEvent を送信する必要がある
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ActiveWindowManager の奇妙な明示的な any
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ドキュメント: Cygwin ターミナルを追加する
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]WebviewInput と LazilyResolvedWebviewEditorInput は同じ型 ID を持っていますか?
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]エディター: onWillHide、onDidHide、setEditorVisible の重複
+[Class]重複したメソッドの削除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]マークダウンリンクは独自のカスタムスキームを使用する必要がある
+[Class]バグの修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]vscode.open と vscode.openWith が ViewColumn の変換に失敗する場合がある
+[Class]バグの修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]クラッシュ レポートのために AppCenter に移行する
+[Class]コードの移行</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]カラー スタイル コードを組み合わせる
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ポリシングをコピー&amp;ペースト: groupByNumber
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]InteractiveEditorInput の matches メソッドに疑問がある
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ModifierKeyEmitter と AlternativeKeyEmitter を統合する
+[Class]コードの統合</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]「osx」は Mac プラットフォーム設定の名前として使用されます。「mac」または「macos」の使用を検討する必要がある
+[Class]名前の変更</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]コマンド パレットから実行されたコマンドはログに記録されない
+[Class]機能の修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]pty ホストが応答しなくなったときにテレメトリイベントを追加する
+[Class]機能の修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]Buffer() の非推奨を防ぐためにiconv-lite への依存関係を更新する
+[Class]ツールの使用</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]再入可能な openEditor 呼び出しの要求をオーバーライドしますか?
+[Class]機能の改善</t>
+    <rPh sb="54" eb="56">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]Webview エディター: 採用editorId
+[Class]エディタの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]すべてのブラケット関連機能にブラケット AST インフラストラクチャを採用
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ロトコル モジュール API のコールバック引数は不要になった
+[Class]不要な引数の削除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]端末エディターで型なし入力を採用する
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]複合起動構成の stopAll オプションは文書化されていません
+[Class]ドキュメントの追加</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Documentation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ノードと同期するようにパス ライブラリを更新する
+[Class]ライブラリの更新</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]workbench/contrib/scm で node/electron-browser の必要性を再確認する
+[Class]ファイルの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]配列に対する for-in ループは避けるべき
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]onDidTriggerItemButton/onDidTriggerButtonに関するフィードバック
+[Class]機能の統合</t>
+    <rPh sb="69" eb="71">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t xml:space="preserve">トウゴウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]rpm パッケージは、マシンに依存しないデータ ディレクトリ (/usr/share) にバイナリを配置する
+[Class]ファイルの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]レイヤ ブレーク: 端末はコア ワークベンチ コードから参照されるべきではない
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]VSCODE は正しい process.env を取得できない
+[Class]コードの改善</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1706,15 +1988,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EF92F5-6478-8C48-8F47-47724FBAC784}">
   <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="46.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="33.140625" customWidth="1"/>
-    <col min="6" max="6" width="60" customWidth="1"/>
+    <col min="6" max="6" width="58.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
@@ -3624,15 +3907,18 @@
         <v>331</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="42">
+    <row r="122" spans="1:6" ht="63">
       <c r="A122" s="2">
         <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="C122" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F122" s="4" t="s">
-        <v>204</v>
+        <v>332</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="42">
@@ -3642,8 +3928,11 @@
       <c r="B123" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="C123" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F123" s="4" t="s">
-        <v>204</v>
+        <v>333</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="42">
@@ -3653,8 +3942,11 @@
       <c r="B124" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="C124" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F124" s="4" t="s">
-        <v>204</v>
+        <v>334</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="42">
@@ -3664,19 +3956,25 @@
       <c r="B125" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="C125" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F125" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="42">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="63">
       <c r="A126" s="2">
         <v>15</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="C126" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F126" s="4" t="s">
-        <v>204</v>
+        <v>336</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="42">
@@ -3686,8 +3984,11 @@
       <c r="B127" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="C127" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="F127" s="4" t="s">
-        <v>204</v>
+        <v>337</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="42">
@@ -3697,8 +3998,11 @@
       <c r="B128" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="C128" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F128" s="4" t="s">
-        <v>204</v>
+        <v>338</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="42">
@@ -3708,8 +4012,11 @@
       <c r="B129" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="C129" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F129" s="4" t="s">
-        <v>204</v>
+        <v>339</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="42">
@@ -3719,8 +4026,11 @@
       <c r="B130" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="C130" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F130" s="4" t="s">
-        <v>204</v>
+        <v>340</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="42">
@@ -3730,19 +4040,25 @@
       <c r="B131" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="C131" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F131" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="42">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="63">
       <c r="A132" s="2">
         <v>242</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="C132" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F132" s="4" t="s">
-        <v>204</v>
+        <v>342</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="42">
@@ -3752,8 +4068,11 @@
       <c r="B133" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="C133" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F133" s="4" t="s">
-        <v>204</v>
+        <v>343</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="42">
@@ -3763,8 +4082,11 @@
       <c r="B134" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="C134" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="F134" s="4" t="s">
-        <v>204</v>
+        <v>344</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="42">
@@ -3774,8 +4096,11 @@
       <c r="B135" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="C135" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F135" s="4" t="s">
-        <v>204</v>
+        <v>345</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="42">
@@ -3785,8 +4110,11 @@
       <c r="B136" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="C136" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F136" s="4" t="s">
-        <v>204</v>
+        <v>346</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="42">
@@ -3796,8 +4124,11 @@
       <c r="B137" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="C137" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F137" s="4" t="s">
-        <v>204</v>
+        <v>347</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="42">
@@ -3807,8 +4138,11 @@
       <c r="B138" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="C138" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F138" s="4" t="s">
-        <v>204</v>
+        <v>348</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="42">
@@ -3818,8 +4152,11 @@
       <c r="B139" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="C139" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F139" s="4" t="s">
-        <v>204</v>
+        <v>349</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="42">
@@ -3829,8 +4166,11 @@
       <c r="B140" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="C140" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F140" s="4" t="s">
-        <v>204</v>
+        <v>350</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="42">
@@ -3840,8 +4180,11 @@
       <c r="B141" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="C141" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="F141" s="4" t="s">
-        <v>204</v>
+        <v>351</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="42">
@@ -3851,19 +4194,25 @@
       <c r="B142" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="C142" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F142" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="42">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="63">
       <c r="A143" s="2">
         <v>209</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>142</v>
       </c>
+      <c r="C143" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F143" s="4" t="s">
-        <v>204</v>
+        <v>353</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="42">
@@ -3873,8 +4222,11 @@
       <c r="B144" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="C144" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F144" s="4" t="s">
-        <v>204</v>
+        <v>354</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="42">
@@ -3884,19 +4236,25 @@
       <c r="B145" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="C145" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F145" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="42">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="63">
       <c r="A146" s="2">
         <v>819</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="C146" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F146" s="4" t="s">
-        <v>204</v>
+        <v>356</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="42">
@@ -3906,30 +4264,39 @@
       <c r="B147" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="C147" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F147" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="42">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="63">
       <c r="A148" s="2">
         <v>928</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="C148" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F148" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="42">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="63">
       <c r="A149" s="2">
         <v>1009</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="C149" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F149" s="4" t="s">
-        <v>204</v>
+        <v>359</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="42">
@@ -3939,8 +4306,11 @@
       <c r="B150" s="2" t="s">
         <v>149</v>
       </c>
+      <c r="C150" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F150" s="4" t="s">
-        <v>204</v>
+        <v>360</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="42">
@@ -3950,8 +4320,11 @@
       <c r="B151" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="C151" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F151" s="4" t="s">
-        <v>204</v>
+        <v>361</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="42">
@@ -3961,8 +4334,11 @@
       <c r="B152" s="2" t="s">
         <v>151</v>
       </c>
+      <c r="C152" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F152" s="4" t="s">
-        <v>204</v>
+        <v>362</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="42">
@@ -3972,8 +4348,11 @@
       <c r="B153" s="2" t="s">
         <v>152</v>
       </c>
+      <c r="C153" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F153" s="4" t="s">
-        <v>204</v>
+        <v>363</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="42">
@@ -3983,19 +4362,25 @@
       <c r="B154" s="2" t="s">
         <v>153</v>
       </c>
+      <c r="C154" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F154" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="42">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="63">
       <c r="A155" s="2">
         <v>251</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>154</v>
       </c>
+      <c r="C155" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F155" s="4" t="s">
-        <v>204</v>
+        <v>365</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="42">
@@ -4005,41 +4390,53 @@
       <c r="B156" s="2" t="s">
         <v>155</v>
       </c>
+      <c r="C156" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F156" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="42">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="63">
       <c r="A157" s="2">
         <v>591</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="C157" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F157" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="42">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="63">
       <c r="A158" s="2">
         <v>568</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>157</v>
       </c>
+      <c r="C158" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="F158" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="42">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="63">
       <c r="A159" s="2">
         <v>816</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>158</v>
       </c>
+      <c r="C159" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F159" s="4" t="s">
-        <v>204</v>
+        <v>370</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="42">
@@ -4049,19 +4446,25 @@
       <c r="B160" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="C160" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F160" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="42">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="63">
       <c r="A161" s="2">
         <v>279</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="C161" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F161" s="4" t="s">
-        <v>204</v>
+        <v>372</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="42">
@@ -4071,8 +4474,11 @@
       <c r="B162" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="C162" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F162" s="4" t="s">
-        <v>204</v>
+        <v>373</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="42">
@@ -4082,8 +4488,11 @@
       <c r="B163" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="C163" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F163" s="4" t="s">
-        <v>204</v>
+        <v>374</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="42">
@@ -4093,8 +4502,11 @@
       <c r="B164" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="C164" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="F164" s="4" t="s">
-        <v>204</v>
+        <v>375</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="42">
@@ -4104,19 +4516,25 @@
       <c r="B165" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="C165" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F165" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="42">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="63">
       <c r="A166" s="2">
         <v>615</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="C166" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F166" s="4" t="s">
-        <v>204</v>
+        <v>378</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="42">
@@ -4126,41 +4544,53 @@
       <c r="B167" s="2" t="s">
         <v>166</v>
       </c>
+      <c r="C167" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F167" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="42">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="63">
       <c r="A168" s="2">
         <v>173</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="C168" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F168" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="42">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="63">
       <c r="A169" s="2">
         <v>27</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>168</v>
       </c>
+      <c r="C169" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F169" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="42">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="63">
       <c r="A170" s="2">
         <v>979</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="C170" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F170" s="4" t="s">
-        <v>204</v>
+        <v>382</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="42">
@@ -4170,8 +4600,11 @@
       <c r="B171" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="C171" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="F171" s="4" t="s">
-        <v>204</v>
+        <v>383</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="42">

--- a/labels_test_tsuji.xlsx
+++ b/labels_test_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704F166C-008C-494F-A62C-29AC9878B06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648460C5-FFE3-F046-8268-348250B3244A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20000" yWindow="-28300" windowWidth="29620" windowHeight="28300" xr2:uid="{69F567FC-C8E7-2C4A-A8F4-285A87206B9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="413">
   <si>
     <t>vscode</t>
   </si>
@@ -650,11 +650,6 @@
   </si>
   <si>
     <t>memo</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[Content]
-[Class]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1595,6 +1590,156 @@
   <si>
     <t>[Content]VSCODE は正しい process.env を取得できない
 [Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]パフォーマンスの向上
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]新しい読み取り専用修飾子を使用する
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]組み込みの php 拡張機能を基本と非基本に分割する
+[Class]機能の追加</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]拡張ホストが開始されるまで入力できない
+[Class]バグの修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]Codicon: font-size プロパティは簡単に上書きされる可能性がある
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ターミナル: アクションからメニュー登録を分割
+[Class]機能の移行</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ワークベンチで端末のノード API の使用を削除する
+[Class]APIの使用を削除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]OPEN_TO_SIDE_COMMAND_ID はファイル サービスを使用してフォルダーを検出するべきではない
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]きめ細かい構成変更イベント
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]EditorService#registerCustomEditorViewTypesHandler とは
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]transaction.oncomplete が使用されないのはなぜですか?
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]process.env レイヤー ブレーカー
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]大判のチェンジロスフォールディングレンジ
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]デバッグ ステータスは IStatusbarEntry である必要がある
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]process.env ユーザーの継承とレンダラー プロセスへの伝播をクリーンアップ
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]IFileService#readFile({ atomic: true}) を採用
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]debug.enableAllHovers 設定を削除する
+[Class]不要な設定の削除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]エディターを非表示にすると、可視性の変更がエディターに反映される
+[Class]バグの修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ワークベンチ エディターのアクションをコマンドに変換する
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]WorkspaceSymbolProvider.resolveWorkspaceSymbol は型システムを回避せずに呼び出されることはない
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]Linux で配色の自動検出が機能しない
+[Class]バグの修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]BaseRequestService とワークベンチ内のものをクリーンアップ
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]CPU 使用率が高い (Windows)
+[Class]パフォーマンスの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]ダーティ エディタの起動時にバックアップが作成されている
+[Class]機能の改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]optimize-vscode 中に一貫してヒープ制限に達する
+[Class]バグの修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]renderReplaceInput() でのリスナー リーク
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]WebView が EditorPart に達する
+[Class]機能の修正</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]すべての Emmet コマンドをコアから拡張機能に移動しローカライズする
+[Class]コードの改善</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]titleMode シーケンスを削除する必要がある
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[Content]テキスト エディター モデルにファイル作業コピーを採用 (ファイル、無題)
+[Class]コードの改善，不要なコードの削除</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1988,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EF92F5-6478-8C48-8F47-47724FBAC784}">
   <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E195" sqref="E195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2023,12 +2168,12 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42">
@@ -2039,12 +2184,12 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="63">
@@ -2055,14 +2200,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="63">
@@ -2073,12 +2218,12 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42">
@@ -2089,12 +2234,12 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42">
@@ -2105,12 +2250,12 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="63">
@@ -2121,12 +2266,12 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42">
@@ -2137,12 +2282,12 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42">
@@ -2153,12 +2298,12 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="63">
@@ -2169,12 +2314,12 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42">
@@ -2185,12 +2330,12 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42">
@@ -2201,12 +2346,12 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="42">
@@ -2217,12 +2362,12 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42">
@@ -2233,12 +2378,12 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="63">
@@ -2249,12 +2394,12 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="42">
@@ -2265,12 +2410,12 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="42">
@@ -2281,12 +2426,12 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="42">
@@ -2297,12 +2442,12 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="42">
@@ -2313,12 +2458,12 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42">
@@ -2329,12 +2474,12 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="63">
@@ -2345,12 +2490,12 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="63">
@@ -2361,12 +2506,12 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="42">
@@ -2377,12 +2522,12 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="42">
@@ -2393,12 +2538,12 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="42">
@@ -2409,12 +2554,12 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="42">
@@ -2425,12 +2570,12 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="42">
@@ -2441,12 +2586,12 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="42">
@@ -2457,14 +2602,14 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="63">
@@ -2475,12 +2620,12 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="63">
@@ -2491,14 +2636,14 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="63">
@@ -2509,12 +2654,12 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="42">
@@ -2525,12 +2670,12 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="42">
@@ -2541,12 +2686,12 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="42">
@@ -2557,12 +2702,12 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="42">
@@ -2573,14 +2718,14 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="42">
@@ -2591,12 +2736,12 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42">
@@ -2607,12 +2752,12 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="63">
@@ -2623,12 +2768,12 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="42">
@@ -2639,12 +2784,12 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="42">
@@ -2655,12 +2800,12 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="42">
@@ -2671,12 +2816,12 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="42">
@@ -2687,12 +2832,12 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="42">
@@ -2703,12 +2848,12 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="42">
@@ -2719,12 +2864,12 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="42">
@@ -2735,12 +2880,12 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="42">
@@ -2751,12 +2896,12 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="63">
@@ -2767,12 +2912,12 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="63">
@@ -2783,12 +2928,12 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="42">
@@ -2799,12 +2944,12 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="42">
@@ -2815,12 +2960,12 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="42">
@@ -2831,12 +2976,12 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="42">
@@ -2847,12 +2992,12 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="42">
@@ -2863,12 +3008,12 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="42">
@@ -2879,12 +3024,12 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="63">
@@ -2895,12 +3040,12 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="63">
@@ -2911,12 +3056,12 @@
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="42">
@@ -2927,12 +3072,12 @@
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="63">
@@ -2943,12 +3088,12 @@
         <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="42">
@@ -2959,12 +3104,12 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="42">
@@ -2975,12 +3120,12 @@
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="63">
@@ -2991,12 +3136,12 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="63">
@@ -3007,12 +3152,12 @@
         <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="42">
@@ -3023,12 +3168,12 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="42">
@@ -3039,12 +3184,12 @@
         <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="42">
@@ -3055,12 +3200,12 @@
         <v>65</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="42">
@@ -3071,12 +3216,12 @@
         <v>66</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="63">
@@ -3087,12 +3232,12 @@
         <v>67</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="42">
@@ -3103,12 +3248,12 @@
         <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="63">
@@ -3119,12 +3264,12 @@
         <v>69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="63">
@@ -3135,12 +3280,12 @@
         <v>70</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="63">
@@ -3151,14 +3296,14 @@
         <v>71</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="63">
@@ -3169,12 +3314,12 @@
         <v>72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="42">
@@ -3185,12 +3330,12 @@
         <v>73</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="63">
@@ -3201,12 +3346,12 @@
         <v>74</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="42">
@@ -3217,12 +3362,12 @@
         <v>75</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="42">
@@ -3233,12 +3378,12 @@
         <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="42">
@@ -3249,12 +3394,12 @@
         <v>77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="42">
@@ -3265,12 +3410,12 @@
         <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="42">
@@ -3281,12 +3426,12 @@
         <v>79</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="42">
@@ -3297,12 +3442,12 @@
         <v>80</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="63">
@@ -3313,12 +3458,12 @@
         <v>81</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="63">
@@ -3329,14 +3474,14 @@
         <v>82</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="42">
@@ -3347,12 +3492,12 @@
         <v>83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="42">
@@ -3363,12 +3508,12 @@
         <v>84</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="42">
@@ -3379,12 +3524,12 @@
         <v>85</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="42">
@@ -3395,12 +3540,12 @@
         <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="42">
@@ -3411,12 +3556,12 @@
         <v>87</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="42">
@@ -3427,12 +3572,12 @@
         <v>88</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="42">
@@ -3443,12 +3588,12 @@
         <v>89</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="42">
@@ -3459,12 +3604,12 @@
         <v>90</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="42">
@@ -3475,12 +3620,12 @@
         <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="42">
@@ -3491,12 +3636,12 @@
         <v>92</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="42">
@@ -3507,12 +3652,12 @@
         <v>93</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="42">
@@ -3523,12 +3668,12 @@
         <v>94</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="42">
@@ -3539,12 +3684,12 @@
         <v>95</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="42">
@@ -3555,12 +3700,12 @@
         <v>96</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="63">
@@ -3571,12 +3716,12 @@
         <v>97</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="63">
@@ -3587,12 +3732,12 @@
         <v>98</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="63">
@@ -3603,12 +3748,12 @@
         <v>99</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="42">
@@ -3619,12 +3764,12 @@
         <v>100</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="42">
@@ -3635,10 +3780,10 @@
         <v>101</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="42">
@@ -3649,10 +3794,10 @@
         <v>102</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="42">
@@ -3663,10 +3808,10 @@
         <v>103</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="42">
@@ -3677,10 +3822,10 @@
         <v>104</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="42">
@@ -3691,10 +3836,10 @@
         <v>105</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="42">
@@ -3705,10 +3850,10 @@
         <v>106</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="42">
@@ -3719,10 +3864,10 @@
         <v>107</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="42">
@@ -3733,10 +3878,10 @@
         <v>108</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="63">
@@ -3747,10 +3892,10 @@
         <v>109</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="42">
@@ -3761,10 +3906,10 @@
         <v>110</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="42">
@@ -3775,10 +3920,10 @@
         <v>111</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="42">
@@ -3789,10 +3934,10 @@
         <v>112</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="42">
@@ -3803,10 +3948,10 @@
         <v>113</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="42">
@@ -3817,10 +3962,10 @@
         <v>114</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="42">
@@ -3831,10 +3976,10 @@
         <v>115</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="63">
@@ -3845,10 +3990,10 @@
         <v>116</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="42">
@@ -3859,10 +4004,10 @@
         <v>117</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="63">
@@ -3873,10 +4018,10 @@
         <v>118</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="42">
@@ -3887,10 +4032,10 @@
         <v>119</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="42">
@@ -3901,10 +4046,10 @@
         <v>120</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="63">
@@ -3915,10 +4060,10 @@
         <v>121</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="42">
@@ -3929,10 +4074,10 @@
         <v>122</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="42">
@@ -3943,10 +4088,10 @@
         <v>123</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="42">
@@ -3957,10 +4102,10 @@
         <v>124</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="63">
@@ -3971,10 +4116,10 @@
         <v>125</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="42">
@@ -3985,10 +4130,10 @@
         <v>126</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="42">
@@ -3999,10 +4144,10 @@
         <v>127</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="42">
@@ -4013,10 +4158,10 @@
         <v>128</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="42">
@@ -4027,10 +4172,10 @@
         <v>129</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="42">
@@ -4041,10 +4186,10 @@
         <v>130</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="63">
@@ -4055,10 +4200,10 @@
         <v>131</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="42">
@@ -4069,10 +4214,10 @@
         <v>132</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="42">
@@ -4083,10 +4228,10 @@
         <v>133</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="42">
@@ -4097,10 +4242,10 @@
         <v>134</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="42">
@@ -4111,10 +4256,10 @@
         <v>135</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="42">
@@ -4125,10 +4270,10 @@
         <v>136</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="42">
@@ -4139,10 +4284,10 @@
         <v>137</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="42">
@@ -4153,10 +4298,10 @@
         <v>138</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="42">
@@ -4167,10 +4312,10 @@
         <v>139</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="42">
@@ -4181,10 +4326,10 @@
         <v>140</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="42">
@@ -4195,10 +4340,10 @@
         <v>141</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="63">
@@ -4209,10 +4354,10 @@
         <v>142</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="42">
@@ -4223,10 +4368,10 @@
         <v>143</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="42">
@@ -4237,10 +4382,10 @@
         <v>144</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="63">
@@ -4251,10 +4396,10 @@
         <v>145</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="42">
@@ -4265,10 +4410,10 @@
         <v>146</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="63">
@@ -4279,10 +4424,10 @@
         <v>147</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="63">
@@ -4293,10 +4438,10 @@
         <v>148</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="42">
@@ -4307,10 +4452,10 @@
         <v>149</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="42">
@@ -4321,10 +4466,10 @@
         <v>150</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="42">
@@ -4335,10 +4480,10 @@
         <v>151</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="42">
@@ -4349,10 +4494,10 @@
         <v>152</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="42">
@@ -4363,10 +4508,10 @@
         <v>153</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="63">
@@ -4377,10 +4522,10 @@
         <v>154</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="42">
@@ -4391,10 +4536,10 @@
         <v>155</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="63">
@@ -4405,10 +4550,10 @@
         <v>156</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="63">
@@ -4419,10 +4564,10 @@
         <v>157</v>
       </c>
       <c r="C158" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F158" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="63">
@@ -4433,10 +4578,10 @@
         <v>158</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="42">
@@ -4447,10 +4592,10 @@
         <v>159</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="63">
@@ -4461,10 +4606,10 @@
         <v>160</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="42">
@@ -4475,10 +4620,10 @@
         <v>161</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="42">
@@ -4489,10 +4634,10 @@
         <v>162</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="42">
@@ -4503,10 +4648,10 @@
         <v>163</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="42">
@@ -4517,10 +4662,10 @@
         <v>164</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="63">
@@ -4531,10 +4676,10 @@
         <v>165</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="42">
@@ -4545,10 +4690,10 @@
         <v>166</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="63">
@@ -4559,10 +4704,10 @@
         <v>167</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="63">
@@ -4573,10 +4718,10 @@
         <v>168</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="63">
@@ -4587,10 +4732,10 @@
         <v>169</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="42">
@@ -4601,10 +4746,10 @@
         <v>170</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="42">
@@ -4614,8 +4759,11 @@
       <c r="B172" s="2" t="s">
         <v>171</v>
       </c>
+      <c r="C172" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="F172" s="4" t="s">
-        <v>204</v>
+        <v>383</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="42">
@@ -4625,8 +4773,11 @@
       <c r="B173" s="2" t="s">
         <v>172</v>
       </c>
+      <c r="C173" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F173" s="4" t="s">
-        <v>204</v>
+        <v>384</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="42">
@@ -4636,8 +4787,11 @@
       <c r="B174" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="C174" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F174" s="4" t="s">
-        <v>204</v>
+        <v>385</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="42">
@@ -4647,19 +4801,25 @@
       <c r="B175" s="2" t="s">
         <v>174</v>
       </c>
+      <c r="C175" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F175" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="42">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="63">
       <c r="A176" s="2">
         <v>803</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="C176" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F176" s="4" t="s">
-        <v>204</v>
+        <v>387</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="42">
@@ -4669,8 +4829,11 @@
       <c r="B177" s="2" t="s">
         <v>176</v>
       </c>
+      <c r="C177" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F177" s="4" t="s">
-        <v>204</v>
+        <v>388</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="42">
@@ -4680,19 +4843,25 @@
       <c r="B178" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="C178" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F178" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="42">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="63">
       <c r="A179" s="2">
         <v>871</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>178</v>
       </c>
+      <c r="C179" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F179" s="4" t="s">
-        <v>204</v>
+        <v>390</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="42">
@@ -4702,8 +4871,11 @@
       <c r="B180" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="C180" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F180" s="4" t="s">
-        <v>204</v>
+        <v>391</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="42">
@@ -4713,8 +4885,11 @@
       <c r="B181" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="C181" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F181" s="4" t="s">
-        <v>204</v>
+        <v>392</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="42">
@@ -4724,8 +4899,11 @@
       <c r="B182" s="2" t="s">
         <v>181</v>
       </c>
+      <c r="C182" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F182" s="4" t="s">
-        <v>204</v>
+        <v>393</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="42">
@@ -4735,8 +4913,11 @@
       <c r="B183" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="C183" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F183" s="4" t="s">
-        <v>204</v>
+        <v>394</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="42">
@@ -4746,8 +4927,11 @@
       <c r="B184" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="C184" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F184" s="4" t="s">
-        <v>204</v>
+        <v>395</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="42">
@@ -4757,19 +4941,25 @@
       <c r="B185" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="C185" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F185" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="42">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="63">
       <c r="A186" s="2">
         <v>229</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="C186" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F186" s="4" t="s">
-        <v>204</v>
+        <v>397</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="42">
@@ -4779,8 +4969,11 @@
       <c r="B187" s="2" t="s">
         <v>186</v>
       </c>
+      <c r="C187" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F187" s="4" t="s">
-        <v>204</v>
+        <v>398</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="42">
@@ -4790,19 +4983,25 @@
       <c r="B188" s="2" t="s">
         <v>187</v>
       </c>
+      <c r="C188" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F188" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="42">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="63">
       <c r="A189" s="2">
         <v>603</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>188</v>
       </c>
+      <c r="C189" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F189" s="4" t="s">
-        <v>204</v>
+        <v>400</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="42">
@@ -4812,19 +5011,25 @@
       <c r="B190" s="2" t="s">
         <v>189</v>
       </c>
+      <c r="C190" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F190" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="42">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="63">
       <c r="A191" s="2">
         <v>143</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>190</v>
       </c>
+      <c r="C191" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F191" s="4" t="s">
-        <v>204</v>
+        <v>402</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="42">
@@ -4834,8 +5039,11 @@
       <c r="B192" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="C192" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F192" s="4" t="s">
-        <v>204</v>
+        <v>403</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="42">
@@ -4845,8 +5053,11 @@
       <c r="B193" s="2" t="s">
         <v>192</v>
       </c>
+      <c r="C193" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F193" s="4" t="s">
-        <v>204</v>
+        <v>404</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="42">
@@ -4856,8 +5067,11 @@
       <c r="B194" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="C194" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="F194" s="4" t="s">
-        <v>204</v>
+        <v>405</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="42">
@@ -4867,8 +5081,11 @@
       <c r="B195" s="2" t="s">
         <v>194</v>
       </c>
+      <c r="C195" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F195" s="4" t="s">
-        <v>204</v>
+        <v>406</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="42">
@@ -4878,8 +5095,11 @@
       <c r="B196" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="C196" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F196" s="4" t="s">
-        <v>204</v>
+        <v>407</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="42">
@@ -4889,8 +5109,11 @@
       <c r="B197" s="2" t="s">
         <v>196</v>
       </c>
+      <c r="C197" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F197" s="4" t="s">
-        <v>204</v>
+        <v>408</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="42">
@@ -4900,19 +5123,25 @@
       <c r="B198" s="2" t="s">
         <v>197</v>
       </c>
+      <c r="C198" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F198" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="42">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="63">
       <c r="A199" s="2">
         <v>343</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>198</v>
       </c>
+      <c r="C199" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F199" s="4" t="s">
-        <v>204</v>
+        <v>410</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="42">
@@ -4922,19 +5151,25 @@
       <c r="B200" s="2" t="s">
         <v>199</v>
       </c>
+      <c r="C200" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F200" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="42">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="63">
       <c r="A201" s="2">
         <v>984</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="C201" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="F201" s="4" t="s">
-        <v>204</v>
+        <v>412</v>
       </c>
     </row>
     <row r="202" spans="1:6">

--- a/labels_test_tsuji.xlsx
+++ b/labels_test_tsuji.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648460C5-FFE3-F046-8268-348250B3244A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AA3BF8-1E0F-2246-80E4-153F21B878DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20000" yWindow="-28300" windowWidth="29620" windowHeight="28300" xr2:uid="{69F567FC-C8E7-2C4A-A8F4-285A87206B9C}"/>
   </bookViews>
@@ -2134,7 +2134,7 @@
   <dimension ref="A1:F202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A183" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E195" sqref="E195"/>
+      <selection activeCell="E191" sqref="E191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
